--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -369,9 +369,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>status do empréstimo</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>Detalhes da Editora</t>
   </si>
   <si>
-    <t>0 - Emprestado            1 - Devolvido</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saídas Externas </t>
   </si>
   <si>
@@ -787,6 +781,9 @@
   </si>
   <si>
     <t>Efetuar de Empréstimo</t>
+  </si>
+  <si>
+    <t>e- Emprestado            d - Devolvido        a - Atrasado</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,57 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1291,6 +1237,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,66 +1695,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="56"/>
-    <col min="2" max="2" width="23.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>7</v>
@@ -1774,36 +1774,36 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="53"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1812,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -1850,72 +1850,72 @@
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="F9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="57">
+      <c r="B10" s="40">
         <f>COUNTA(B5:B9)</f>
         <v>5</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="B11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>7</v>
@@ -1935,10 +1935,10 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
+        <v>223</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1954,11 +1954,11 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -1972,11 +1972,11 @@
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
@@ -1990,17 +1990,17 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2008,17 +2008,17 @@
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -2026,17 +2026,17 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -2044,11 +2044,11 @@
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="53"/>
+      <c r="E21" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
@@ -2062,29 +2062,29 @@
       <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="53"/>
+      <c r="E23" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
@@ -2098,11 +2098,11 @@
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
@@ -2116,7 +2116,7 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2129,60 +2129,60 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="62">
+      <c r="B26" s="45">
         <f>COUNTA(B15:B25)</f>
         <v>11</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="B27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>7</v>
@@ -2202,7 +2202,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
@@ -2230,60 +2230,60 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="62">
+      <c r="B33" s="45">
         <f>COUNTA(B31:B32)</f>
         <v>2</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="B34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36" t="s">
+      <c r="C36" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>7</v>
@@ -2303,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
@@ -2322,7 +2322,7 @@
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="35" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="4"/>
@@ -2340,7 +2340,7 @@
       <c r="D40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="4"/>
@@ -2358,7 +2358,7 @@
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="35" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="4"/>
@@ -2376,7 +2376,7 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="35" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="4"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -2394,17 +2394,17 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -2412,69 +2412,69 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="62">
+      <c r="B45" s="45">
         <f>COUNTA(B38:B44)</f>
         <v>7</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="B46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
     </row>
     <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>7</v>
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
@@ -2513,7 +2513,7 @@
       <c r="D51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="35" t="s">
         <v>47</v>
       </c>
       <c r="F51" s="4"/>
@@ -2531,7 +2531,7 @@
       <c r="D52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="35" t="s">
         <v>48</v>
       </c>
       <c r="F52" s="4"/>
@@ -2549,7 +2549,7 @@
       <c r="D53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="35" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="4"/>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
@@ -2567,17 +2567,17 @@
       <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="53"/>
+      <c r="E54" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
@@ -2585,11 +2585,11 @@
       <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="53"/>
+      <c r="E55" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="36"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="D56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="35" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="4"/>
@@ -2612,60 +2612,60 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="62">
+      <c r="B57" s="45">
         <f>COUNTA(B50:B56)</f>
         <v>7</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
+      <c r="B58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="36" t="s">
+      <c r="C60" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="33" t="s">
+      <c r="G60" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>7</v>
@@ -2685,7 +2685,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
@@ -2695,7 +2695,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2704,11 +2704,11 @@
       <c r="D63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2717,7 +2717,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -2726,11 +2726,11 @@
       <c r="D64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="35" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2748,11 +2748,11 @@
       <c r="D65" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="35" t="s">
         <v>63</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2761,7 +2761,7 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2770,11 +2770,11 @@
       <c r="D66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2783,7 +2783,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="35" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2792,7 +2792,7 @@
       <c r="D67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="35" t="s">
         <v>66</v>
       </c>
       <c r="F67" s="4"/>
@@ -2801,7 +2801,7 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2810,7 +2810,7 @@
       <c r="D68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="35" t="s">
         <v>67</v>
       </c>
       <c r="F68" s="4"/>
@@ -2819,8 +2819,8 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="52" t="s">
-        <v>232</v>
+      <c r="B69" s="35" t="s">
+        <v>230</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>40</v>
@@ -2828,7 +2828,7 @@
       <c r="D69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="35" t="s">
         <v>68</v>
       </c>
       <c r="F69" s="4"/>
@@ -2836,28 +2836,28 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="52" t="s">
+    <row r="70" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>137</v>
+      <c r="E70" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -2866,7 +2866,7 @@
       <c r="D71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="35" t="s">
         <v>69</v>
       </c>
       <c r="F71" s="4"/>
@@ -2877,60 +2877,60 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="62">
+      <c r="B72" s="45">
         <f>COUNTA(B62:B71)</f>
         <v>10</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
+      <c r="B73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
     </row>
     <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
     </row>
     <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="36" t="s">
+      <c r="C75" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="34"/>
-      <c r="I75" s="35"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>7</v>
@@ -2950,7 +2950,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
@@ -2960,7 +2960,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -2969,11 +2969,11 @@
       <c r="D78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2982,7 +2982,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2991,11 +2991,11 @@
       <c r="D79" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="35" t="s">
         <v>62</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3004,7 +3004,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3013,11 +3013,11 @@
       <c r="D80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="52" t="s">
+      <c r="E80" s="35" t="s">
         <v>63</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3026,7 +3026,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -3035,11 +3035,11 @@
       <c r="D81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="35" t="s">
         <v>64</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3048,8 +3048,8 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="52" t="s">
-        <v>231</v>
+      <c r="B82" s="35" t="s">
+        <v>229</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>40</v>
@@ -3057,7 +3057,7 @@
       <c r="D82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="35" t="s">
         <v>71</v>
       </c>
       <c r="F82" s="4"/>
@@ -3066,7 +3066,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3075,18 +3075,18 @@
       <c r="D83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>230</v>
+      <c r="E83" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>228</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3095,7 +3095,7 @@
       <c r="D84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="52" t="s">
+      <c r="E84" s="35" t="s">
         <v>73</v>
       </c>
       <c r="F84" s="4"/>
@@ -3104,55 +3104,55 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="62">
+      <c r="B85" s="45">
         <f>COUNTA(B77:B84)</f>
         <v>8</v>
       </c>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="35"/>
+      <c r="B88" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="59"/>
     </row>
     <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="36" t="s">
+      <c r="C89" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="36" t="s">
+      <c r="F89" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="34"/>
-      <c r="I89" s="35"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="59"/>
     </row>
     <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H90" s="32" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -3172,10 +3172,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
@@ -3187,7 +3187,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -3195,11 +3195,11 @@
       <c r="D92" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="52" t="s">
+      <c r="E92" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3208,55 +3208,55 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="62">
+      <c r="B93" s="45">
         <f>COUNTA(B91:B92)</f>
         <v>2</v>
       </c>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
     </row>
     <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="35"/>
+      <c r="B96" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="59"/>
     </row>
     <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="36" t="s">
+      <c r="C97" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="36" t="s">
+      <c r="E97" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="34"/>
-      <c r="I97" s="35"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="59"/>
     </row>
     <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>7</v>
@@ -3276,7 +3276,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
@@ -3286,8 +3286,8 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="52" t="s">
-        <v>222</v>
+      <c r="B100" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>13</v>
@@ -3295,8 +3295,8 @@
       <c r="D100" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E100" s="52" t="s">
-        <v>226</v>
+      <c r="E100" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
@@ -3304,17 +3304,17 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="52" t="s">
-        <v>224</v>
+      <c r="B101" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E101" s="52" t="s">
-        <v>227</v>
+      <c r="E101" s="35" t="s">
+        <v>225</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
@@ -3322,17 +3322,17 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="52" t="s">
-        <v>223</v>
+      <c r="B102" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="52" t="s">
-        <v>229</v>
+      <c r="E102" s="35" t="s">
+        <v>227</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
@@ -3340,15 +3340,71 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="62">
+      <c r="B103" s="45">
         <f>COUNTA(B99:B102)</f>
         <v>4</v>
       </c>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
     <mergeCell ref="B96:I96"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="C97:C98"/>
@@ -3356,62 +3412,6 @@
     <mergeCell ref="E97:E98"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:I75"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3422,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,18 +3436,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="70"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -3569,50 +3569,50 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="71">
+      <c r="B12" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="54">
         <f>Arquivos!B93</f>
         <v>2</v>
       </c>
-      <c r="D12" s="71">
-        <v>1</v>
-      </c>
-      <c r="E12" s="68"/>
+      <c r="D12" s="54">
+        <v>1</v>
+      </c>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="71">
+      <c r="B13" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="54">
         <f>Arquivos!B103</f>
         <v>4</v>
       </c>
-      <c r="D13" s="71">
-        <v>1</v>
-      </c>
-      <c r="E13" s="68"/>
+      <c r="D13" s="54">
+        <v>1</v>
+      </c>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
@@ -3810,7 +3810,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -3905,95 +3905,95 @@
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="54">
+        <v>5</v>
+      </c>
+      <c r="D42" s="54">
+        <v>1</v>
+      </c>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="54">
+        <v>5</v>
+      </c>
+      <c r="D43" s="54">
+        <v>1</v>
+      </c>
+      <c r="E43" s="51"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="71">
-        <v>5</v>
-      </c>
-      <c r="D42" s="71">
-        <v>1</v>
-      </c>
-      <c r="E42" s="68"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="70" t="s">
+      <c r="C44" s="54">
+        <v>3</v>
+      </c>
+      <c r="D44" s="54">
+        <v>1</v>
+      </c>
+      <c r="E44" s="51"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="71">
-        <v>5</v>
-      </c>
-      <c r="D43" s="71">
-        <v>1</v>
-      </c>
-      <c r="E43" s="68"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="s">
+      <c r="C45" s="54">
+        <v>7</v>
+      </c>
+      <c r="D45" s="54">
+        <v>2</v>
+      </c>
+      <c r="E45" s="53"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="71">
+      <c r="C46" s="54">
+        <v>7</v>
+      </c>
+      <c r="D46" s="54">
+        <v>2</v>
+      </c>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="54">
         <v>3</v>
       </c>
-      <c r="D44" s="71">
-        <v>1</v>
-      </c>
-      <c r="E44" s="68"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="71">
-        <v>7</v>
-      </c>
-      <c r="D45" s="71">
+      <c r="D47" s="54">
         <v>2</v>
       </c>
-      <c r="E45" s="70"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="C46" s="71">
-        <v>7</v>
-      </c>
-      <c r="D46" s="71">
-        <v>2</v>
-      </c>
-      <c r="E46" s="70"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="71">
-        <v>3</v>
-      </c>
-      <c r="D47" s="71">
-        <v>2</v>
-      </c>
-      <c r="E47" s="70"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
+      <c r="B48" s="55"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="72"/>
-      <c r="C49" s="64"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="47"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="47"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
+      <c r="B51" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
@@ -4011,7 +4011,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="8">
         <v>3</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="8">
         <v>8</v>
@@ -4076,12 +4076,12 @@
         <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="8">
         <v>7</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8">
         <v>5</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="8">
         <v>5</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="8">
         <v>5</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="8">
         <v>5</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="8">
         <v>8</v>
@@ -4174,12 +4174,12 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="8">
         <v>7</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="8">
         <v>3</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="10">
         <v>5</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="10">
         <v>10</v>
@@ -4230,12 +4230,12 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="10">
         <v>7</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="10">
         <v>7</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="10">
         <v>10</v>
@@ -4272,12 +4272,12 @@
         <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="10">
         <v>7</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C74" s="10">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C75" s="10">
         <v>1</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -4346,72 +4346,72 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="67">
-        <v>1</v>
-      </c>
-      <c r="D77" s="67">
-        <v>1</v>
-      </c>
-      <c r="E77" s="68"/>
+      <c r="B77" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="50">
+        <v>1</v>
+      </c>
+      <c r="D77" s="50">
+        <v>1</v>
+      </c>
+      <c r="E77" s="51"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="67">
+      <c r="B78" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="50">
         <v>5</v>
       </c>
-      <c r="D78" s="67">
-        <v>1</v>
-      </c>
-      <c r="E78" s="68"/>
+      <c r="D78" s="50">
+        <v>1</v>
+      </c>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="67">
+      <c r="B79" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="50">
         <v>4</v>
       </c>
-      <c r="D79" s="67">
+      <c r="D79" s="50">
         <v>2</v>
       </c>
-      <c r="E79" s="68"/>
+      <c r="E79" s="51"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80" s="70">
+      <c r="B80" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="53">
         <v>4</v>
       </c>
-      <c r="D80" s="70">
-        <v>1</v>
-      </c>
-      <c r="E80" s="70"/>
+      <c r="D80" s="53">
+        <v>1</v>
+      </c>
+      <c r="E80" s="53"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="70">
+      <c r="B81" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="53">
         <v>5</v>
       </c>
-      <c r="D81" s="70">
-        <v>1</v>
-      </c>
-      <c r="E81" s="70"/>
+      <c r="D81" s="53">
+        <v>1</v>
+      </c>
+      <c r="E81" s="53"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
+      <c r="B85" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
     </row>
     <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
@@ -4428,40 +4428,48 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="52">
+        <v>5</v>
+      </c>
+      <c r="D87" s="52">
+        <v>3</v>
+      </c>
+      <c r="E87" s="52"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="74">
+        <v>3</v>
+      </c>
+      <c r="D88" s="74">
+        <v>3</v>
+      </c>
+      <c r="E88" s="53"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C87" s="69">
-        <v>5</v>
-      </c>
-      <c r="D87" s="69">
-        <v>3</v>
-      </c>
-      <c r="E87" s="69"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="70" t="s">
+      <c r="C89" s="74">
+        <v>4</v>
+      </c>
+      <c r="D89" s="74">
+        <v>2</v>
+      </c>
+      <c r="E89" s="53"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4527,38 +4535,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
         <v>143</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>85</v>
@@ -4573,15 +4581,15 @@
         <f>D4*E4</f>
         <v>49</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="63">
         <f>SUM(F4:F6)</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4593,12 +4601,12 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4610,11 +4618,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
-        <v>146</v>
+      <c r="B7" s="63" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>85</v>
@@ -4629,15 +4637,15 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="63">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -4649,12 +4657,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -4666,11 +4674,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
-        <v>147</v>
+      <c r="B10" s="63" t="s">
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>85</v>
@@ -4685,15 +4693,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="63">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -4705,12 +4713,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -4722,11 +4730,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
-        <v>148</v>
+      <c r="B13" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>85</v>
@@ -4741,15 +4749,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="63">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -4761,12 +4769,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -4778,11 +4786,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>153</v>
+      <c r="B16" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>85</v>
@@ -4797,15 +4805,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="63">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -4817,12 +4825,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -4834,11 +4842,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" s="15">
         <f>SUM(G4:G18)</f>
@@ -4895,22 +4903,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="42"/>
+      <c r="B2" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="66"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -4918,7 +4926,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -4926,7 +4934,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4934,7 +4942,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4942,7 +4950,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4950,7 +4958,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -4958,7 +4966,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -4966,7 +4974,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -4974,7 +4982,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4982,7 +4990,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -4990,7 +4998,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4998,7 +5006,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5006,7 +5014,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -5014,7 +5022,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5022,7 +5030,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C4:C17)</f>
@@ -5031,7 +5039,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" s="19">
         <f>0.65+(0.01 * C18)</f>
@@ -5040,7 +5048,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="19">
         <f>(C20*PontosNãoAjustados!G19)</f>
@@ -5081,33 +5089,33 @@
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>181</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="23">
         <v>7500</v>
@@ -5126,7 +5134,7 @@
         <v>28636.400000000001</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J4" s="28">
         <v>500</v>
@@ -5134,7 +5142,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="23">
         <v>5294</v>
@@ -5153,7 +5161,7 @@
         <v>12633.4</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J5" s="28">
         <v>1267.5</v>
@@ -5161,7 +5169,7 @@
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="23">
         <v>4566</v>
@@ -5180,7 +5188,7 @@
         <v>17433.84</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J6" s="30">
         <v>68078.7</v>
@@ -5188,7 +5196,7 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="23">
         <v>5547</v>
@@ -5207,7 +5215,7 @@
         <v>7942.2899999999991</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J7" s="28">
         <v>3505.5</v>
@@ -5215,7 +5223,7 @@
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="23">
         <v>3002</v>
@@ -5234,7 +5242,7 @@
         <v>1432.77</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J8" s="31">
         <f>SUM(J4:J7)</f>
@@ -5242,13 +5250,13 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="23">
         <f>SUM(G4:G8)</f>
         <v>68078.7</v>

--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
@@ -1238,6 +1238,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
@@ -1714,45 +1714,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="32" t="s">
         <v>205</v>
       </c>
@@ -1875,45 +1875,45 @@
       <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="32" t="s">
         <v>205</v>
       </c>
@@ -2142,45 +2142,45 @@
       <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="60" t="s">
+      <c r="C29" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="32" t="s">
         <v>205</v>
       </c>
@@ -2243,45 +2243,45 @@
       <c r="F34" s="41"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="32" t="s">
         <v>205</v>
       </c>
@@ -2434,45 +2434,45 @@
       <c r="F46" s="41"/>
     </row>
     <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60"/>
     </row>
     <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="60" t="s">
+      <c r="C48" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="G48" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="32" t="s">
         <v>205</v>
       </c>
@@ -2625,45 +2625,45 @@
       <c r="F58" s="41"/>
     </row>
     <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="60"/>
     </row>
     <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="60" t="s">
+      <c r="C60" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="57" t="s">
+      <c r="G60" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="60"/>
     </row>
     <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="32" t="s">
         <v>205</v>
       </c>
@@ -2890,45 +2890,45 @@
       <c r="F73" s="41"/>
     </row>
     <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="60"/>
     </row>
     <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="60" t="s">
+      <c r="C75" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E75" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="60" t="s">
+      <c r="F75" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="57" t="s">
+      <c r="G75" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="32" t="s">
         <v>205</v>
       </c>
@@ -3112,45 +3112,45 @@
       <c r="F85" s="41"/>
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="57" t="s">
+      <c r="B88" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="60"/>
     </row>
     <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="60" t="s">
+      <c r="C89" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="60" t="s">
+      <c r="F89" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="57" t="s">
+      <c r="G89" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="58"/>
-      <c r="I89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="60"/>
     </row>
     <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="32" t="s">
         <v>205</v>
       </c>
@@ -3216,45 +3216,45 @@
       <c r="F93" s="41"/>
     </row>
     <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="60"/>
     </row>
     <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="60" t="s">
+      <c r="C97" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="60" t="s">
+      <c r="E97" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="60" t="s">
+      <c r="F97" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="57" t="s">
+      <c r="G97" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="58"/>
-      <c r="I97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="60"/>
     </row>
     <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
       <c r="G98" s="32" t="s">
         <v>205</v>
       </c>
@@ -3349,6 +3349,62 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:I60"/>
     <mergeCell ref="B74:I74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -3356,62 +3412,6 @@
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="G75:I75"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:I97"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3422,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,12 +3442,12 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -3607,12 +3607,12 @@
       <c r="E15" s="49"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
@@ -3988,12 +3988,12 @@
       <c r="C50" s="47"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
@@ -4406,12 +4406,12 @@
       <c r="E81" s="53"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
     </row>
     <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
@@ -4443,10 +4443,10 @@
       <c r="B88" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="C88" s="74">
+      <c r="C88" s="57">
         <v>3</v>
       </c>
-      <c r="D88" s="74">
+      <c r="D88" s="57">
         <v>3</v>
       </c>
       <c r="E88" s="53"/>
@@ -4455,10 +4455,10 @@
       <c r="B89" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C89" s="74">
-        <v>4</v>
-      </c>
-      <c r="D89" s="74">
+      <c r="C89" s="57">
+        <v>7</v>
+      </c>
+      <c r="D89" s="57">
         <v>2</v>
       </c>
       <c r="E89" s="53"/>
@@ -4467,8 +4467,12 @@
       <c r="B90" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
+      <c r="C90" s="54">
+        <v>7</v>
+      </c>
+      <c r="D90" s="54">
+        <v>3</v>
+      </c>
       <c r="E90" s="53"/>
     </row>
   </sheetData>
@@ -4535,14 +4539,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4565,7 +4569,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4581,13 +4585,13 @@
         <f>D4*E4</f>
         <v>49</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="64">
         <f>SUM(F4:F6)</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="2" t="s">
         <v>147</v>
       </c>
@@ -4601,10 +4605,10 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="2" t="s">
         <v>148</v>
       </c>
@@ -4618,10 +4622,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4637,13 +4641,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="64">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="2" t="s">
         <v>147</v>
       </c>
@@ -4657,10 +4661,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="2" t="s">
         <v>148</v>
       </c>
@@ -4674,10 +4678,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4693,13 +4697,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="64">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="64"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="2" t="s">
         <v>147</v>
       </c>
@@ -4713,10 +4717,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="2" t="s">
         <v>148</v>
       </c>
@@ -4730,10 +4734,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="68" t="s">
         <v>146</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -4749,13 +4753,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="64">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="12" t="s">
         <v>147</v>
       </c>
@@ -4769,10 +4773,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="12" t="s">
         <v>148</v>
       </c>
@@ -4786,10 +4790,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -4805,13 +4809,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="64">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="12" t="s">
         <v>147</v>
       </c>
@@ -4825,10 +4829,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="12" t="s">
         <v>148</v>
       </c>
@@ -4842,7 +4846,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
@@ -4903,10 +4907,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
@@ -5250,13 +5254,13 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="23">
         <f>SUM(G4:G8)</f>
         <v>68078.7</v>

--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Análise de Sistemas\7º Período\Projeto de Software I\Versions\trunk\Documentos\Planilhas - Tabelas - Quadros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\7º Período\TCC\trunk\Documentos\Planilhas - Tabelas - Quadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,6 @@
     <t>varchar(256)</t>
   </si>
   <si>
-    <t>nomé do responsável pelo usuário</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -784,6 +781,9 @@
   </si>
   <si>
     <t>e- Emprestado            d - Devolvido        a - Atrasado</t>
+  </si>
+  <si>
+    <t>nome do responsável pelo usuário</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1754,7 +1754,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
       <c r="G4" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>7</v>
@@ -1774,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -1794,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1812,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -1851,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
@@ -1915,7 +1915,7 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>7</v>
@@ -1935,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="36"/>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2009,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -2045,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="36"/>
@@ -2182,7 +2182,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
       <c r="G30" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>7</v>
@@ -2202,7 +2202,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
@@ -2283,7 +2283,7 @@
       <c r="E37" s="62"/>
       <c r="F37" s="62"/>
       <c r="G37" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>7</v>
@@ -2303,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="36"/>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -2413,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="36"/>
@@ -2474,7 +2474,7 @@
       <c r="E49" s="62"/>
       <c r="F49" s="62"/>
       <c r="G49" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>7</v>
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
@@ -2568,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="36"/>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
@@ -2586,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="36"/>
@@ -2665,7 +2665,7 @@
       <c r="E61" s="62"/>
       <c r="F61" s="62"/>
       <c r="G61" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>7</v>
@@ -2685,7 +2685,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
@@ -2708,7 +2708,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2730,7 +2730,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2752,7 +2752,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2774,7 +2774,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>40</v>
@@ -2850,7 +2850,7 @@
         <v>113</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
@@ -2930,7 +2930,7 @@
       <c r="E76" s="62"/>
       <c r="F76" s="62"/>
       <c r="G76" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>7</v>
@@ -2950,7 +2950,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
@@ -2973,7 +2973,7 @@
         <v>61</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2995,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3017,7 +3017,7 @@
         <v>63</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3039,7 +3039,7 @@
         <v>64</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>40</v>
@@ -3076,10 +3076,10 @@
         <v>15</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -3152,7 +3152,7 @@
       <c r="E90" s="62"/>
       <c r="F90" s="62"/>
       <c r="G90" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H90" s="32" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -3172,10 +3172,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
@@ -3187,7 +3187,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -3196,10 +3196,10 @@
         <v>15</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
@@ -3256,7 +3256,7 @@
       <c r="E98" s="62"/>
       <c r="F98" s="62"/>
       <c r="G98" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>7</v>
@@ -3276,7 +3276,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>13</v>
@@ -3296,7 +3296,7 @@
         <v>60</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
@@ -3305,16 +3305,16 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
@@ -3323,16 +3323,16 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
@@ -3349,6 +3349,62 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
     <mergeCell ref="B96:I96"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="C97:C98"/>
@@ -3356,62 +3412,6 @@
     <mergeCell ref="E97:E98"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:I75"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3422,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -3438,7 +3438,7 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G2" s="53"/>
       <c r="H2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="54">
         <f>Arquivos!B93</f>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" s="54">
         <f>Arquivos!B103</f>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C42" s="54">
         <v>5</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" s="54">
         <v>5</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" s="54">
         <v>3</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="54">
         <v>7</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="54">
         <v>7</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="54">
         <v>3</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="50">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78" s="50">
         <v>5</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="50">
         <v>4</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80" s="53">
         <v>4</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C81" s="53">
         <v>5</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="52">
         <v>5</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" s="57">
         <v>3</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" s="57">
         <v>7</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="54">
         <v>7</v>

--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\7º Período\TCC\trunk\Documentos\Planilhas - Tabelas - Quadros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Análise de Sistemas\7º Período\Projeto de Software I\Versions\trunk\Documentos\Planilhas - Tabelas - Quadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -225,9 +225,6 @@
     <t>codigo do livro</t>
   </si>
   <si>
-    <t>id_bibliotecaria</t>
-  </si>
-  <si>
     <t>data do empréstimo</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>data de devolução da obra</t>
   </si>
   <si>
-    <t>código da bibliotecária logada</t>
-  </si>
-  <si>
     <t>RESERVA</t>
   </si>
   <si>
@@ -612,6 +606,9 @@
     <t>varchar(256)</t>
   </si>
   <si>
+    <t>nomé do responsável pelo usuário</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
@@ -783,7 +780,13 @@
     <t>e- Emprestado            d - Devolvido        a - Atrasado</t>
   </si>
   <si>
-    <t>nome do responsável pelo usuário</t>
+    <t>complexo</t>
+  </si>
+  <si>
+    <t>id_responsavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o usuário que efetuará a ação </t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,6 +911,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,6 +1250,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,13 +1284,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,7 +1309,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1695,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1714,47 +1757,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>7</v>
@@ -1774,7 +1817,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -1785,16 +1828,16 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
@@ -1803,7 +1846,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1812,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -1851,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
@@ -1875,47 +1918,47 @@
       <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="61" t="s">
+      <c r="C13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>7</v>
@@ -1935,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="36"/>
@@ -2000,7 +2043,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2009,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
@@ -2018,7 +2061,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -2027,7 +2070,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
@@ -2036,7 +2079,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -2045,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
@@ -2072,16 +2115,16 @@
     </row>
     <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="36"/>
@@ -2142,47 +2185,47 @@
       <c r="F27" s="41"/>
     </row>
     <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>7</v>
@@ -2202,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
@@ -2243,47 +2286,47 @@
       <c r="F34" s="41"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>7</v>
@@ -2303,7 +2346,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
@@ -2386,7 +2429,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -2395,7 +2438,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="36"/>
@@ -2404,7 +2447,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -2413,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="36"/>
@@ -2434,47 +2477,47 @@
       <c r="F46" s="41"/>
     </row>
     <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="61" t="s">
+      <c r="F48" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="60"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>7</v>
@@ -2494,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
@@ -2559,7 +2602,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
@@ -2568,7 +2611,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="36"/>
@@ -2577,7 +2620,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
@@ -2586,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="36"/>
@@ -2625,47 +2668,47 @@
       <c r="F58" s="41"/>
     </row>
     <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="61" t="s">
+      <c r="C60" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="60"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
       <c r="G61" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>7</v>
@@ -2685,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
@@ -2708,7 +2751,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2730,7 +2773,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2752,7 +2795,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2774,7 +2817,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2793,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
@@ -2811,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
@@ -2820,7 +2863,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>40</v>
@@ -2829,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
@@ -2838,7 +2881,7 @@
     </row>
     <row r="70" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>14</v>
@@ -2847,10 +2890,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
@@ -2858,7 +2901,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="35" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
@@ -2867,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
@@ -2890,47 +2933,47 @@
       <c r="F73" s="41"/>
     </row>
     <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="60"/>
+      <c r="B74" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
     </row>
     <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="61" t="s">
+      <c r="C75" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F75" s="61" t="s">
+      <c r="F75" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="58" t="s">
+      <c r="G75" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="59"/>
-      <c r="I75" s="60"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="62"/>
     </row>
     <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>7</v>
@@ -2950,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
@@ -2973,7 +3016,7 @@
         <v>61</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2995,7 +3038,7 @@
         <v>62</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3017,7 +3060,7 @@
         <v>63</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3039,7 +3082,7 @@
         <v>64</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3049,7 +3092,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>40</v>
@@ -3058,7 +3101,7 @@
         <v>15</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
@@ -3067,7 +3110,7 @@
     </row>
     <row r="83" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B83" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>14</v>
@@ -3076,10 +3119,10 @@
         <v>15</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3087,7 +3130,7 @@
     </row>
     <row r="84" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B84" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>40</v>
@@ -3096,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
@@ -3112,47 +3155,47 @@
       <c r="F85" s="41"/>
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="60"/>
+      <c r="B88" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="62"/>
     </row>
     <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="61" t="s">
+      <c r="C89" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="61" t="s">
+      <c r="E89" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="61" t="s">
+      <c r="F89" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="58" t="s">
+      <c r="G89" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="59"/>
-      <c r="I89" s="60"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="62"/>
     </row>
     <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H90" s="32" t="s">
         <v>7</v>
@@ -3163,7 +3206,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -3172,10 +3215,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
@@ -3187,7 +3230,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -3196,10 +3239,10 @@
         <v>15</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3216,47 +3259,47 @@
       <c r="F93" s="41"/>
     </row>
     <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="60"/>
+      <c r="B96" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="62"/>
     </row>
     <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="61" t="s">
+      <c r="B97" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="61" t="s">
+      <c r="C97" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="61" t="s">
+      <c r="E97" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="61" t="s">
+      <c r="F97" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="59"/>
-      <c r="I97" s="60"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="62"/>
     </row>
     <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>7</v>
@@ -3276,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
@@ -3287,7 +3330,7 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>13</v>
@@ -3296,7 +3339,7 @@
         <v>60</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
@@ -3305,16 +3348,16 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
@@ -3323,16 +3366,16 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
@@ -3420,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H90"/>
+  <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E72" activeCellId="6" sqref="E65 E64 E58 E57 E68 E71 E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,34 +3481,34 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G2" s="53"/>
       <c r="H2" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1">
         <f>Arquivos!B10</f>
@@ -3475,12 +3518,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1">
         <f>Arquivos!B26</f>
@@ -3490,12 +3533,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1">
         <f>Arquivos!B33</f>
@@ -3505,12 +3548,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <f>Arquivos!B45</f>
@@ -3520,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -3535,12 +3578,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1">
         <f>Arquivos!B72</f>
@@ -3550,12 +3593,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1">
         <f>Arquivos!B85</f>
@@ -3565,12 +3608,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="54">
         <f>Arquivos!B93</f>
@@ -3579,11 +3622,13 @@
       <c r="D12" s="54">
         <v>1</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="54">
         <f>Arquivos!B103</f>
@@ -3592,7 +3637,9 @@
       <c r="D13" s="54">
         <v>1</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
@@ -3606,31 +3653,34 @@
       <c r="D15" s="48"/>
       <c r="E15" s="49"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
@@ -3638,11 +3688,13 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -3650,11 +3702,13 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -3662,11 +3716,13 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1">
         <v>11</v>
@@ -3674,11 +3730,13 @@
       <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -3686,11 +3744,13 @@
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>11</v>
@@ -3698,11 +3758,13 @@
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -3710,11 +3772,13 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -3722,11 +3786,13 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -3734,11 +3800,13 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1">
         <v>8</v>
@@ -3746,11 +3814,13 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -3758,11 +3828,13 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
@@ -3770,11 +3842,13 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
@@ -3782,11 +3856,13 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -3794,11 +3870,13 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1">
         <v>8</v>
@@ -3806,11 +3884,13 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
@@ -3818,11 +3898,13 @@
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -3830,11 +3912,13 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1">
         <v>9</v>
@@ -3842,11 +3926,13 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -3854,11 +3940,13 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -3866,11 +3954,13 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1">
         <v>6</v>
@@ -3878,11 +3968,13 @@
       <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -3890,11 +3982,13 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -3902,11 +3996,13 @@
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="54">
         <v>5</v>
@@ -3914,11 +4010,13 @@
       <c r="D42" s="54">
         <v>1</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="54">
         <v>5</v>
@@ -3926,11 +4024,13 @@
       <c r="D43" s="54">
         <v>1</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="54">
         <v>3</v>
@@ -3938,11 +4038,13 @@
       <c r="D44" s="54">
         <v>1</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C45" s="54">
         <v>7</v>
@@ -3950,11 +4052,13 @@
       <c r="D45" s="54">
         <v>2</v>
       </c>
-      <c r="E45" s="53"/>
+      <c r="E45" s="51" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" s="54">
         <v>7</v>
@@ -3962,11 +4066,13 @@
       <c r="D46" s="54">
         <v>2</v>
       </c>
-      <c r="E46" s="53"/>
+      <c r="E46" s="51" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C47" s="54">
         <v>3</v>
@@ -3974,7 +4080,9 @@
       <c r="D47" s="54">
         <v>2</v>
       </c>
-      <c r="E47" s="53"/>
+      <c r="E47" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="55"/>
@@ -3988,30 +4096,30 @@
       <c r="C50" s="47"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
+      <c r="B51" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
@@ -4020,12 +4128,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
@@ -4034,12 +4142,12 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8">
         <v>3</v>
@@ -4048,12 +4156,12 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8">
         <v>3</v>
@@ -4062,12 +4170,12 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="8">
         <v>8</v>
@@ -4076,12 +4184,12 @@
         <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" s="8">
         <v>7</v>
@@ -4090,12 +4198,12 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -4104,12 +4212,12 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="8">
         <v>5</v>
@@ -4118,12 +4226,12 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="8">
         <v>5</v>
@@ -4132,12 +4240,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8">
         <v>5</v>
@@ -4146,12 +4254,12 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="8">
         <v>5</v>
@@ -4160,12 +4268,12 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" s="8">
         <v>8</v>
@@ -4174,12 +4282,12 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="8">
         <v>7</v>
@@ -4188,12 +4296,12 @@
         <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C66" s="8">
         <v>3</v>
@@ -4202,12 +4310,12 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10">
         <v>5</v>
@@ -4216,12 +4324,12 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" s="10">
         <v>10</v>
@@ -4230,12 +4338,12 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" s="10">
         <v>7</v>
@@ -4244,12 +4352,12 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="10">
         <v>7</v>
@@ -4258,12 +4366,12 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" s="10">
         <v>10</v>
@@ -4272,12 +4380,12 @@
         <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="10">
         <v>7</v>
@@ -4286,12 +4394,12 @@
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -4300,12 +4408,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="10">
         <v>1</v>
@@ -4314,12 +4422,12 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C75" s="10">
         <v>1</v>
@@ -4328,26 +4436,26 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="6">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6">
+        <v>171</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="50">
         <v>1</v>
@@ -4355,11 +4463,13 @@
       <c r="D77" s="50">
         <v>1</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" s="50">
         <v>5</v>
@@ -4367,11 +4477,13 @@
       <c r="D78" s="50">
         <v>1</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="50">
         <v>4</v>
@@ -4379,11 +4491,13 @@
       <c r="D79" s="50">
         <v>2</v>
       </c>
-      <c r="E79" s="51"/>
+      <c r="E79" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" s="53">
         <v>4</v>
@@ -4391,11 +4505,13 @@
       <c r="D80" s="53">
         <v>1</v>
       </c>
-      <c r="E80" s="53"/>
+      <c r="E80" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81" s="53">
         <v>5</v>
@@ -4403,33 +4519,35 @@
       <c r="D81" s="53">
         <v>1</v>
       </c>
-      <c r="E81" s="53"/>
+      <c r="E81" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
+      <c r="B85" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
     </row>
     <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E86" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" s="52">
         <v>5</v>
@@ -4437,11 +4555,13 @@
       <c r="D87" s="52">
         <v>3</v>
       </c>
-      <c r="E87" s="52"/>
+      <c r="E87" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="57">
         <v>3</v>
@@ -4449,11 +4569,13 @@
       <c r="D88" s="57">
         <v>3</v>
       </c>
-      <c r="E88" s="53"/>
+      <c r="E88" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="57">
         <v>7</v>
@@ -4461,11 +4583,13 @@
       <c r="D89" s="57">
         <v>2</v>
       </c>
-      <c r="E89" s="53"/>
+      <c r="E89" s="51" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C90" s="54">
         <v>7</v>
@@ -4473,7 +4597,9 @@
       <c r="D90" s="54">
         <v>3</v>
       </c>
-      <c r="E90" s="53"/>
+      <c r="E90" s="51" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4483,6 +4609,17 @@
     <mergeCell ref="B85:E85"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E15">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E47">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4493,7 +4630,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E44">
+  <conditionalFormatting sqref="E53:E81">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4504,7 +4641,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E79">
+  <conditionalFormatting sqref="E87:E90">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4539,61 +4676,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="B2" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
-        <v>143</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>7</v>
       </c>
       <c r="F4" s="3">
         <f>D4*E4</f>
-        <v>49</v>
-      </c>
-      <c r="G4" s="64">
+        <v>63</v>
+      </c>
+      <c r="G4" s="66">
         <f>SUM(F4:F6)</f>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -4605,12 +4742,12 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -4622,51 +4759,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
-        <v>144</v>
+      <c r="B7" s="66" t="s">
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G7" s="64">
+        <v>57</v>
+      </c>
+      <c r="G7" s="66">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G8" s="65"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -4678,51 +4815,51 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
-        <v>145</v>
+      <c r="B10" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G10" s="64">
+        <v>66</v>
+      </c>
+      <c r="G10" s="66">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G11" s="65"/>
+        <v>28</v>
+      </c>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -4734,70 +4871,70 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="B13" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="58">
+        <v>2</v>
+      </c>
+      <c r="E13" s="59">
         <v>4</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="64">
+        <v>8</v>
+      </c>
+      <c r="G13" s="66">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="B14" s="71"/>
+      <c r="C14" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="58">
+        <v>2</v>
+      </c>
+      <c r="E14" s="59">
         <v>5</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="72"/>
+      <c r="C15" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="58">
         <v>0</v>
       </c>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="E15" s="59">
         <v>7</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="66"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
-        <v>151</v>
+      <c r="B16" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -4809,15 +4946,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="66">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="71"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -4829,12 +4966,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -4846,15 +4983,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="15">
         <f>SUM(G4:G18)</f>
-        <v>210</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,22 +5044,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="67"/>
+      <c r="B2" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="69"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -4930,7 +5067,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -4938,7 +5075,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4946,7 +5083,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4954,7 +5091,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4962,7 +5099,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -4970,7 +5107,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -4978,7 +5115,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -4986,7 +5123,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4994,7 +5131,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5002,7 +5139,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5010,7 +5147,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5018,7 +5155,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -5026,7 +5163,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5034,7 +5171,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C4:C17)</f>
@@ -5043,7 +5180,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="19">
         <f>0.65+(0.01 * C18)</f>
@@ -5052,15 +5189,15 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="19">
         <f>(C20*PontosNãoAjustados!G19)</f>
-        <v>191.1</v>
+        <v>254.8</v>
       </c>
       <c r="D22" s="19">
         <f>_xlfn.FLOOR.MATH(C22)</f>
-        <v>191</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5093,33 +5230,33 @@
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="23">
         <v>7500</v>
@@ -5138,7 +5275,7 @@
         <v>28636.400000000001</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" s="28">
         <v>500</v>
@@ -5146,7 +5283,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="23">
         <v>5294</v>
@@ -5165,7 +5302,7 @@
         <v>12633.4</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" s="28">
         <v>1267.5</v>
@@ -5173,7 +5310,7 @@
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="23">
         <v>4566</v>
@@ -5192,7 +5329,7 @@
         <v>17433.84</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J6" s="30">
         <v>68078.7</v>
@@ -5200,7 +5337,7 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="23">
         <v>5547</v>
@@ -5219,7 +5356,7 @@
         <v>7942.2899999999991</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J7" s="28">
         <v>3505.5</v>
@@ -5227,7 +5364,7 @@
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="23">
         <v>3002</v>
@@ -5246,7 +5383,7 @@
         <v>1432.77</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J8" s="31">
         <f>SUM(J4:J7)</f>
@@ -5254,13 +5391,13 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="23">
         <f>SUM(G4:G8)</f>
         <v>68078.7</v>

--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Contagem" sheetId="2" r:id="rId2"/>
-    <sheet name="PontosNãoAjustados" sheetId="3" r:id="rId3"/>
-    <sheet name="Ajuste" sheetId="4" r:id="rId4"/>
-    <sheet name="Esforço-Prazo" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan1" sheetId="6" r:id="rId3"/>
+    <sheet name="PontosNãoAjustados" sheetId="3" r:id="rId4"/>
+    <sheet name="Ajuste" sheetId="4" r:id="rId5"/>
+    <sheet name="Esforço-Prazo" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="269">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -474,9 +475,6 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>médio</t>
-  </si>
-  <si>
     <t>Arquivo Externo</t>
   </si>
   <si>
@@ -780,13 +778,64 @@
     <t>e- Emprestado            d - Devolvido        a - Atrasado</t>
   </si>
   <si>
-    <t>complexo</t>
-  </si>
-  <si>
     <t>id_responsavel</t>
   </si>
   <si>
     <t xml:space="preserve">o usuário que efetuará a ação </t>
+  </si>
+  <si>
+    <t>Revisão de Estimativas e Prazos</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Inclusão</t>
+  </si>
+  <si>
+    <t>Entrada Externa</t>
+  </si>
+  <si>
+    <t>Consulta Externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesa </t>
+  </si>
+  <si>
+    <t>Custo mensal</t>
+  </si>
+  <si>
+    <t>Quantidade de meses</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Energia elétrica</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Papel A4 branco</t>
+  </si>
+  <si>
+    <t>Canetas esferográficas azuis</t>
+  </si>
+  <si>
+    <t>Cartuchos para impressora jato de tinta</t>
+  </si>
+  <si>
+    <t>Encadernações</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1111,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,6 +1321,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,11 +1363,142 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1738,16 +1927,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B102"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="39"/>
     <col min="2" max="2" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="46" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="39" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="44" customWidth="1"/>
@@ -1797,7 +1986,7 @@
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>7</v>
@@ -1817,7 +2006,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
@@ -1828,16 +2017,16 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
@@ -1846,7 +2035,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1855,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -1894,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38"/>
@@ -1958,7 +2147,7 @@
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
       <c r="G14" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>7</v>
@@ -1978,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="36"/>
@@ -2043,7 +2232,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2052,7 +2241,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="36"/>
@@ -2061,7 +2250,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -2070,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="36"/>
@@ -2079,7 +2268,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -2088,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="36"/>
@@ -2115,16 +2304,16 @@
     </row>
     <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="36"/>
@@ -2225,7 +2414,7 @@
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
       <c r="G30" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>7</v>
@@ -2245,7 +2434,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
@@ -2326,7 +2515,7 @@
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
       <c r="G37" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>7</v>
@@ -2346,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
@@ -2429,7 +2618,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
@@ -2438,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="36"/>
@@ -2447,7 +2636,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
@@ -2456,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="36"/>
@@ -2517,7 +2706,7 @@
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
       <c r="G49" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>7</v>
@@ -2537,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
@@ -2602,7 +2791,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
@@ -2611,7 +2800,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="36"/>
@@ -2620,7 +2809,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
@@ -2629,7 +2818,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="36"/>
@@ -2708,7 +2897,7 @@
       <c r="E61" s="64"/>
       <c r="F61" s="64"/>
       <c r="G61" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>7</v>
@@ -2728,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
@@ -2751,7 +2940,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2773,7 +2962,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2795,7 +2984,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2817,7 +3006,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2863,7 +3052,7 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>40</v>
@@ -2893,7 +3082,7 @@
         <v>111</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
@@ -2901,7 +3090,7 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
@@ -2910,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
@@ -2973,7 +3162,7 @@
       <c r="E76" s="64"/>
       <c r="F76" s="64"/>
       <c r="G76" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>7</v>
@@ -2993,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
@@ -3016,7 +3205,7 @@
         <v>61</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3038,7 +3227,7 @@
         <v>62</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -3060,7 +3249,7 @@
         <v>63</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3082,7 +3271,7 @@
         <v>64</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3092,7 +3281,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>40</v>
@@ -3119,10 +3308,10 @@
         <v>15</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3156,7 +3345,7 @@
     </row>
     <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C88" s="61"/>
       <c r="D88" s="61"/>
@@ -3195,7 +3384,7 @@
       <c r="E90" s="64"/>
       <c r="F90" s="64"/>
       <c r="G90" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H90" s="32" t="s">
         <v>7</v>
@@ -3206,7 +3395,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
@@ -3215,10 +3404,10 @@
         <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
@@ -3230,7 +3419,7 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
@@ -3239,10 +3428,10 @@
         <v>15</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3260,7 +3449,7 @@
     </row>
     <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="61"/>
       <c r="D96" s="61"/>
@@ -3299,7 +3488,7 @@
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
       <c r="G98" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>7</v>
@@ -3319,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
@@ -3330,7 +3519,7 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>13</v>
@@ -3339,7 +3528,7 @@
         <v>60</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
@@ -3348,16 +3537,16 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
@@ -3366,16 +3555,16 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
@@ -3465,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E72" activeCellId="6" sqref="E65 E64 E58 E57 E68 E71 E72"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,7 +3670,7 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G2" s="53"/>
       <c r="H2" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -3518,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -3533,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -3548,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -3563,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -3578,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -3593,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -3608,12 +3797,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="54">
         <f>Arquivos!B93</f>
@@ -3622,13 +3811,13 @@
       <c r="D12" s="54">
         <v>1</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>108</v>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="54">
         <f>Arquivos!B103</f>
@@ -3637,8 +3826,8 @@
       <c r="D13" s="54">
         <v>1</v>
       </c>
-      <c r="E13" s="51" t="s">
-        <v>108</v>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -3689,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -3703,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -3717,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -3731,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -3745,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -3759,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -3773,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -3787,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -3801,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -3815,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -3829,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -3843,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -3857,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -3871,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -3885,12 +4074,12 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
@@ -3899,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -3913,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3927,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -3941,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -3955,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -3969,12 +4158,12 @@
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -3983,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -3997,12 +4186,12 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C42" s="54">
         <v>5</v>
@@ -4010,13 +4199,13 @@
       <c r="D42" s="54">
         <v>1</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>108</v>
+      <c r="E42" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="54">
         <v>5</v>
@@ -4024,13 +4213,13 @@
       <c r="D43" s="54">
         <v>1</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>108</v>
+      <c r="E43" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="54">
         <v>3</v>
@@ -4038,13 +4227,13 @@
       <c r="D44" s="54">
         <v>1</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>108</v>
+      <c r="E44" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="54">
         <v>7</v>
@@ -4052,13 +4241,13 @@
       <c r="D45" s="54">
         <v>2</v>
       </c>
-      <c r="E45" s="51" t="s">
-        <v>148</v>
+      <c r="E45" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="54">
         <v>7</v>
@@ -4066,13 +4255,13 @@
       <c r="D46" s="54">
         <v>2</v>
       </c>
-      <c r="E46" s="51" t="s">
-        <v>148</v>
+      <c r="E46" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="54">
         <v>3</v>
@@ -4081,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -4128,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -4142,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -4156,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -4170,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -4184,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -4198,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -4212,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -4226,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -4240,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -4254,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -4268,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -4282,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -4296,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -4310,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -4324,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -4338,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
@@ -4352,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
@@ -4366,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
@@ -4380,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
@@ -4394,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
@@ -4408,12 +4597,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="10">
         <v>1</v>
@@ -4422,12 +4611,12 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="10">
         <v>1</v>
@@ -4436,12 +4625,12 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="10">
         <v>1</v>
@@ -4450,12 +4639,12 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="50">
         <v>1</v>
@@ -4463,13 +4652,13 @@
       <c r="D77" s="50">
         <v>1</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>108</v>
+      <c r="E77" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C78" s="50">
         <v>5</v>
@@ -4477,13 +4666,13 @@
       <c r="D78" s="50">
         <v>1</v>
       </c>
-      <c r="E78" s="51" t="s">
-        <v>108</v>
+      <c r="E78" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="50">
         <v>4</v>
@@ -4491,13 +4680,13 @@
       <c r="D79" s="50">
         <v>2</v>
       </c>
-      <c r="E79" s="51" t="s">
-        <v>108</v>
+      <c r="E79" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C80" s="53">
         <v>4</v>
@@ -4505,13 +4694,13 @@
       <c r="D80" s="53">
         <v>1</v>
       </c>
-      <c r="E80" s="51" t="s">
-        <v>108</v>
+      <c r="E80" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C81" s="53">
         <v>5</v>
@@ -4519,8 +4708,8 @@
       <c r="D81" s="53">
         <v>1</v>
       </c>
-      <c r="E81" s="51" t="s">
-        <v>108</v>
+      <c r="E81" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -4547,7 +4736,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="52">
         <v>5</v>
@@ -4555,13 +4744,13 @@
       <c r="D87" s="52">
         <v>3</v>
       </c>
-      <c r="E87" s="51" t="s">
-        <v>108</v>
+      <c r="E87" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="57">
         <v>3</v>
@@ -4569,13 +4758,13 @@
       <c r="D88" s="57">
         <v>3</v>
       </c>
-      <c r="E88" s="51" t="s">
-        <v>108</v>
+      <c r="E88" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="57">
         <v>7</v>
@@ -4583,13 +4772,13 @@
       <c r="D89" s="57">
         <v>2</v>
       </c>
-      <c r="E89" s="51" t="s">
-        <v>148</v>
+      <c r="E89" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C90" s="54">
         <v>7</v>
@@ -4597,8 +4786,8 @@
       <c r="D90" s="54">
         <v>3</v>
       </c>
-      <c r="E90" s="51" t="s">
-        <v>148</v>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4609,6 +4798,50 @@
     <mergeCell ref="B85:E85"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E15">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E47">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E56 E59:E81">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4619,7 +4852,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E47">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4630,7 +4863,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E81">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4641,7 +4874,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E90">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -4658,6 +4891,156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="68"/>
+      <c r="G7" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="68"/>
+      <c r="G9" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="68"/>
+      <c r="G10" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="68"/>
+      <c r="G11" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="68"/>
+      <c r="G12" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="68"/>
+      <c r="G13" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="68"/>
+      <c r="G15" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="68"/>
+      <c r="G16" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="68"/>
+      <c r="G17" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="68"/>
+      <c r="G19" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="68"/>
+      <c r="G20" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="68"/>
+      <c r="G21" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="68"/>
+      <c r="G22" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F18:F22"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G25"/>
   <sheetViews>
@@ -4676,14 +5059,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4706,7 +5089,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4722,13 +5105,13 @@
         <f>D4*E4</f>
         <v>63</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="69">
         <f>SUM(F4:F6)</f>
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
         <v>145</v>
       </c>
@@ -4742,10 +5125,10 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
         <v>146</v>
       </c>
@@ -4759,10 +5142,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4778,13 +5161,13 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="2" t="s">
         <v>145</v>
       </c>
@@ -4798,10 +5181,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="68"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="2" t="s">
         <v>146</v>
       </c>
@@ -4815,10 +5198,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="69" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4834,13 +5217,13 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="69">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="2" t="s">
         <v>145</v>
       </c>
@@ -4854,10 +5237,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="68"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="2" t="s">
         <v>146</v>
       </c>
@@ -4871,10 +5254,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="73" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -4890,13 +5273,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="69">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="58" t="s">
         <v>145</v>
       </c>
@@ -4910,10 +5293,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="58" t="s">
         <v>146</v>
       </c>
@@ -4927,11 +5310,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>149</v>
+      <c r="B16" s="76" t="s">
+        <v>148</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>83</v>
@@ -4946,13 +5329,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="69">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
       </c>
@@ -4966,10 +5349,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="67"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="12" t="s">
         <v>146</v>
       </c>
@@ -4983,11 +5366,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="15">
         <f>SUM(G4:G18)</f>
@@ -5029,7 +5412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D22"/>
   <sheetViews>
@@ -5044,22 +5427,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="69"/>
+      <c r="B2" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -5067,7 +5450,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -5075,7 +5458,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5083,7 +5466,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5091,7 +5474,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5099,7 +5482,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -5107,7 +5490,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -5115,7 +5498,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -5123,7 +5506,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5131,7 +5514,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5139,7 +5522,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5147,7 +5530,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5155,7 +5538,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -5163,7 +5546,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5180,7 +5563,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="19">
         <f>0.65+(0.01 * C18)</f>
@@ -5189,7 +5572,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="19">
         <f>(C20*PontosNãoAjustados!G19)</f>
@@ -5208,19 +5591,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
@@ -5230,33 +5613,33 @@
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>140</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="23">
         <v>7500</v>
@@ -5265,17 +5648,17 @@
         <v>3579.55</v>
       </c>
       <c r="E4" s="24">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F4" s="24">
         <v>1</v>
       </c>
       <c r="G4" s="23">
         <f>D4*E4*F4</f>
-        <v>28636.400000000001</v>
+        <v>30426.175000000003</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" s="28">
         <v>500</v>
@@ -5283,7 +5666,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="23">
         <v>5294</v>
@@ -5302,7 +5685,7 @@
         <v>12633.4</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="28">
         <v>1267.5</v>
@@ -5310,7 +5693,7 @@
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="23">
         <v>4566</v>
@@ -5329,7 +5712,7 @@
         <v>17433.84</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="30">
         <v>68078.7</v>
@@ -5337,7 +5720,7 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="23">
         <v>5547</v>
@@ -5356,15 +5739,15 @@
         <v>7942.2899999999991</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="28">
-        <v>3505.5</v>
+        <v>3310.75</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="23">
         <v>3002</v>
@@ -5387,25 +5770,228 @@
       </c>
       <c r="J8" s="31">
         <f>SUM(J4:J7)</f>
-        <v>73351.7</v>
+        <v>73156.95</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
+      <c r="B9" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="23">
         <f>SUM(G4:G8)</f>
-        <v>68078.7</v>
+        <v>69868.475000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="23">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="23">
+        <v>773.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="23">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="23">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="23">
+        <v>40</v>
+      </c>
+      <c r="D18" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E18" s="23">
+        <f>C18*D18</f>
+        <v>340</v>
+      </c>
+      <c r="I18" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="23">
+        <v>85.9</v>
+      </c>
+      <c r="D19" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:E26" si="1">C19*D19</f>
+        <v>730.15000000000009</v>
+      </c>
+      <c r="I19" s="23">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="23">
+        <v>150</v>
+      </c>
+      <c r="D20" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="I20" s="23">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="23">
+        <v>90</v>
+      </c>
+      <c r="D21" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="23">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="I21" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="82">
+        <f>SUM(I13:I21)</f>
+        <v>3505.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="23">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="1"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D25" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" si="1"/>
+        <v>73.949999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="23">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="23">
+        <f>SUM(E18:E26)</f>
+        <v>3310.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
+++ b/Documentos/Planilhas - Tabelas - Quadros/FPA_Revisão.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
-    <sheet name="Contagem" sheetId="2" r:id="rId2"/>
+    <sheet name="Contagem" sheetId="2" r:id="rId1"/>
+    <sheet name="Arquivos" sheetId="1" r:id="rId2"/>
     <sheet name="Plan1" sheetId="6" r:id="rId3"/>
     <sheet name="PontosNãoAjustados" sheetId="3" r:id="rId4"/>
     <sheet name="Ajuste" sheetId="4" r:id="rId5"/>
@@ -1303,6 +1303,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,17 +1371,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1925,1733 +1925,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:I102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="40">
-        <f>COUNTA(B5:B9)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="45">
-        <f>COUNTA(B15:B25)</f>
-        <v>11</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-    </row>
-    <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="45">
-        <f>COUNTA(B31:B32)</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="45">
-        <f>COUNTA(B38:B44)</f>
-        <v>7</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-    </row>
-    <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="45">
-        <f>COUNTA(B50:B56)</f>
-        <v>7</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-    </row>
-    <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="61"/>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="45">
-        <f>COUNTA(B62:B71)</f>
-        <v>10</v>
-      </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-    </row>
-    <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="61"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H76" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="45">
-        <f>COUNTA(B77:B84)</f>
-        <v>8</v>
-      </c>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-    </row>
-    <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B88" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="62"/>
-    </row>
-    <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="61"/>
-      <c r="I89" s="62"/>
-    </row>
-    <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H90" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="45">
-        <f>COUNTA(B91:B92)</f>
-        <v>2</v>
-      </c>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-    </row>
-    <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="62"/>
-    </row>
-    <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G97" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="61"/>
-      <c r="I97" s="62"/>
-    </row>
-    <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H98" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="45">
-        <f>COUNTA(B99:B102)</f>
-        <v>4</v>
-      </c>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:I97"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
@@ -3674,12 +1947,12 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -3843,12 +2116,12 @@
       <c r="E15" s="49"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="I17" t="s">
         <v>108</v>
       </c>
@@ -4285,12 +2558,12 @@
       <c r="C50" s="47"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
     </row>
     <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
@@ -4713,12 +2986,12 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
     </row>
     <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
@@ -4890,6 +3163,1733 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="23.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="40">
+        <f>COUNTA(B5:B9)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="45">
+        <f>COUNTA(B15:B25)</f>
+        <v>11</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="45">
+        <f>COUNTA(B31:B32)</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+    </row>
+    <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
+    </row>
+    <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="45">
+        <f>COUNTA(B38:B44)</f>
+        <v>7</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="66"/>
+    </row>
+    <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="45">
+        <f>COUNTA(B50:B56)</f>
+        <v>7</v>
+      </c>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+    </row>
+    <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66"/>
+    </row>
+    <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="65"/>
+      <c r="I60" s="66"/>
+    </row>
+    <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="45">
+        <f>COUNTA(B62:B71)</f>
+        <v>10</v>
+      </c>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+    </row>
+    <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="66"/>
+    </row>
+    <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="65"/>
+      <c r="I75" s="66"/>
+    </row>
+    <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="45">
+        <f>COUNTA(B77:B84)</f>
+        <v>8</v>
+      </c>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+    </row>
+    <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="66"/>
+    </row>
+    <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B89" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="65"/>
+      <c r="I89" s="66"/>
+    </row>
+    <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="45">
+        <f>COUNTA(B91:B92)</f>
+        <v>2</v>
+      </c>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+    </row>
+    <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B96" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="66"/>
+    </row>
+    <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B97" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="65"/>
+      <c r="I97" s="66"/>
+    </row>
+    <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="45">
+        <f>COUNTA(B99:B102)</f>
+        <v>4</v>
+      </c>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:I75"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:G22"/>
@@ -4905,10 +4905,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" s="7" t="s">
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="72" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -4927,13 +4927,13 @@
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="68"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="72" t="s">
         <v>254</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -4941,37 +4941,37 @@
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="68"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="68"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="68"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="68"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="68"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="72" t="s">
         <v>144</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -4979,25 +4979,25 @@
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="68"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="68"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="68"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="72" t="s">
         <v>255</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -5005,25 +5005,25 @@
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="68"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="68"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="68"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="68"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="6" t="s">
         <v>245</v>
       </c>
@@ -5059,14 +5059,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -5089,7 +5089,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="73" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5105,13 +5105,13 @@
         <f>D4*E4</f>
         <v>63</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="73">
         <f>SUM(F4:F6)</f>
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="2" t="s">
         <v>145</v>
       </c>
@@ -5125,10 +5125,10 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="2" t="s">
         <v>146</v>
       </c>
@@ -5142,10 +5142,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="73" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5161,13 +5161,13 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="73">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="2" t="s">
         <v>145</v>
       </c>
@@ -5181,10 +5181,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="2" t="s">
         <v>146</v>
       </c>
@@ -5198,10 +5198,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5217,13 +5217,13 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="73">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="2" t="s">
         <v>145</v>
       </c>
@@ -5237,10 +5237,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="2" t="s">
         <v>146</v>
       </c>
@@ -5254,10 +5254,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="77" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -5273,13 +5273,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="73">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="58" t="s">
         <v>145</v>
       </c>
@@ -5293,10 +5293,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="58" t="s">
         <v>146</v>
       </c>
@@ -5310,10 +5310,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="80" t="s">
         <v>148</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -5329,13 +5329,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="73">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
       </c>
@@ -5349,10 +5349,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="12" t="s">
         <v>146</v>
       </c>
@@ -5366,7 +5366,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F19" s="14" t="s">
@@ -5427,10 +5427,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
@@ -5595,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J8"/>
     </sheetView>
   </sheetViews>
@@ -5611,7 +5611,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>172</v>
       </c>
@@ -5774,13 +5774,13 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="23">
         <f>SUM(G4:G8)</f>
         <v>69868.475000000006</v>
@@ -5807,16 +5807,16 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="61" t="s">
         <v>257</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="61" t="s">
         <v>140</v>
       </c>
       <c r="I17" s="23">
@@ -5909,7 +5909,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="62">
         <f>SUM(I13:I21)</f>
         <v>3505.5</v>
       </c>
@@ -5973,16 +5973,16 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="63" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="23">
         <f>SUM(E18:E26)</f>
         <v>3310.75</v>
